--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/01-档案式报表.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/01-档案式报表.xpt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FA1D55-8532-405F-B66E-E4DFC9CB859F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3746E2D-F2BE-4868-8B5D-D2507DA5483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,10 +258,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>${$Math.roundDown(today().$monthDiff($Date.parseDate(entity.inJstiDate))/12.0,1)}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>*=meetingName</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -339,7 +335,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>${today().$yearDiff($Date.parseDate(entity.birthday))}</t>
+    <t>${"2023-04-20".$toLocalDate().$yearDiff($Date.parseDate(entity.birthday))}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>${$Math.roundDown("2023-04-20".$toLocalDate().$monthDiff($Date.parseDate(entity.inJstiDate))/12.0,1)}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -585,21 +585,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,16 +624,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D34"/>
+      <selection activeCell="H7" sqref="H7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -1408,338 +1408,338 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34.15" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="2.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="17" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="H5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="17" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="17" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="H7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="4" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="11" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="17" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="17" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="11"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="25.65" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="22" spans="1:10" ht="25.65" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="6"/>
@@ -1769,70 +1769,70 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="25.65" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="3" t="s">
         <v>38</v>
       </c>
@@ -1842,37 +1842,37 @@
     </row>
     <row r="28" spans="1:10" ht="24.5" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="7" t="s">
         <v>42</v>
       </c>
@@ -1882,45 +1882,45 @@
       <c r="G30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="25.65" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="7" t="s">
         <v>48</v>
       </c>
@@ -1930,59 +1930,74 @@
       <c r="G33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="25.65" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -1994,44 +2009,29 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="7.8000001609325409E-2" right="7.8000001609325409E-2" top="0.39300000667572021" bottom="0.39300000667572021" header="0" footer="0.23600000143051147"/>
@@ -2064,7 +2064,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>

--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/01-档案式报表.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/01-档案式报表.xpt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3746E2D-F2BE-4868-8B5D-D2507DA5483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB351F-6612-4556-B852-6775536C2414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,20 @@
     <author>u</author>
   </authors>
   <commentList>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{3EB380A7-55C7-42F3-9B7F-E491FD270CAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>rowParent=B10</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0" xr:uid="{7CB2C78F-A051-41B2-B8E7-C6B65C78B1C1}">
       <text>
         <r>
@@ -39,6 +53,20 @@
           </rPr>
           <t>expandType=r
 expandExpr=entity.educations</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{EDE7463B-C3B6-4B33-AFD3-11FFAA939470}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>rowParent=B13</t>
         </r>
       </text>
     </comment>
@@ -56,6 +84,20 @@
           <t>expandType=r
 expandExpr=entity.work
 keepExpandEmpty=true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{C1C08A45-9052-4B5C-B9F5-B63C8E4C2686}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>rowParent=B34</t>
         </r>
       </text>
     </comment>
@@ -350,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -437,6 +479,13 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -585,6 +634,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -595,36 +674,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1391,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -1408,338 +1457,338 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34.15" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="2.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="17" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="17" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="17" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="18"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="17" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="17" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="25.65" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
@@ -1758,10 +1807,10 @@
     </row>
     <row r="22" spans="1:10" ht="25.65" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="6"/>
@@ -1769,70 +1818,70 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="25.65" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="3" t="s">
         <v>38</v>
       </c>
@@ -1842,37 +1891,37 @@
     </row>
     <row r="28" spans="1:10" ht="24.5" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="7" t="s">
         <v>42</v>
       </c>
@@ -1882,45 +1931,45 @@
       <c r="G30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="25.65" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" ht="22.75" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="7" t="s">
         <v>48</v>
       </c>
@@ -1930,19 +1979,19 @@
       <c r="G33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="25.65" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="4" t="s">
         <v>58</v>
       </c>
@@ -1952,52 +2001,37 @@
       <c r="G34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -2009,29 +2043,44 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:J32"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="7.8000001609325409E-2" right="7.8000001609325409E-2" top="0.39300000667572021" bottom="0.39300000667572021" header="0" footer="0.23600000143051147"/>
